--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\Streamlit_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037D53E1-5EB8-4BD4-A59E-5ECF1C90676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96068492-AF07-4005-B706-14A5AB2535B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,21 +397,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,174 +435,306 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20250410</v>
+        <v>20250631</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>280085278</v>
+        <v>102695835</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20250411</v>
+        <v>20250701</v>
       </c>
       <c r="D3">
-        <v>2994422</v>
+        <v>-2062174</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">D2+E2+F3</f>
-        <v>280085278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <f>D2+E2+F3</f>
+        <v>102695835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20250414</v>
+        <v>20250702</v>
       </c>
       <c r="D4">
-        <v>4303385</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>283079700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E3:E26" si="0">D3+E3+F4</f>
+        <v>100633661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>20250415</v>
+        <v>20250703</v>
       </c>
       <c r="D5">
-        <v>-2902643</v>
+        <v>-906656</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>287383085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100633661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>20250416</v>
+        <v>20250704</v>
       </c>
       <c r="D6">
-        <v>-24270</v>
+        <v>-113291</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>284480442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>99727005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20250417</v>
+        <v>20250707</v>
       </c>
       <c r="D7">
-        <v>-52276</v>
+        <v>3390614</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>284456172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>99613714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20250418</v>
+        <v>20250708</v>
       </c>
       <c r="D8">
-        <v>-2136935</v>
+        <v>3820000</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>284403896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>103004328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20250421</v>
+        <v>20250709</v>
       </c>
       <c r="D9">
-        <v>-1271088</v>
+        <v>3243516</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>282266961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>106824328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20250422</v>
+        <v>20250710</v>
       </c>
       <c r="D10">
-        <v>-32879201</v>
+        <v>6563174</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>280995873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>110067844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>20250423</v>
+        <v>20250711</v>
       </c>
       <c r="D11">
-        <v>142402</v>
+        <v>-102225</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>248116672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116631018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>20250424</v>
+        <v>20250714</v>
       </c>
       <c r="D12">
-        <v>2923741</v>
+        <v>-1471841</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>248259074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>116528793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20250425</v>
+        <v>20250715</v>
       </c>
       <c r="D13">
-        <v>-2340649</v>
+        <v>-1676443</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>251182815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>115056952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20250428</v>
+        <v>20250716</v>
       </c>
       <c r="D14">
-        <v>-1762947</v>
+        <v>4464747</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>248842166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>113380509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20250429</v>
+        <v>20250717</v>
       </c>
       <c r="D15">
-        <v>-253498</v>
+        <v>4323825</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>247079219</v>
+        <v>117845256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20250718</v>
+      </c>
+      <c r="D16">
+        <v>-1179422</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>122169081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20250721</v>
+      </c>
+      <c r="D17">
+        <v>-14772</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>120989659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20250722</v>
+      </c>
+      <c r="D18">
+        <v>4466711</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>120974887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20250723</v>
+      </c>
+      <c r="D19">
+        <v>-1186598</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>125441598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20250724</v>
+      </c>
+      <c r="D20">
+        <v>-658570</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>124255000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20250725</v>
+      </c>
+      <c r="D21">
+        <v>-157941</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>123596430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20250728</v>
+      </c>
+      <c r="D22">
+        <v>-1068451</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>123438489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20250729</v>
+      </c>
+      <c r="D23">
+        <v>8552181</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>122370038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20250730</v>
+      </c>
+      <c r="D24">
+        <v>-2465157</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>130922219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20250731</v>
+      </c>
+      <c r="D25">
+        <v>-3843490</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>128457062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20250801</v>
+      </c>
+      <c r="D26">
+        <v>-1423404</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>124613572</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96068492-AF07-4005-B706-14A5AB2535B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B7A7F-B11A-42AA-B98E-26E273FFE2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20250631</v>
+        <v>20250630</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E26" si="0">D3+E3+F4</f>
+        <f t="shared" ref="E4:E26" si="0">D3+E3+F4</f>
         <v>100633661</v>
       </c>
     </row>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B7A7F-B11A-42AA-B98E-26E273FFE2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003F42DF-1F7C-4E6E-8E53-71DD5CB31C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>bonus</t>
+  </si>
+  <si>
+    <t>return2</t>
+  </si>
+  <si>
+    <t>return1</t>
+  </si>
+  <si>
+    <t>capital1</t>
   </si>
 </sst>
 </file>
@@ -397,22 +406,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,19 +432,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20250630</v>
       </c>
@@ -448,8 +469,22 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>D2+F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>E2+G2</f>
+        <v>102695835</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20250701</v>
       </c>
@@ -457,11 +492,25 @@
         <v>-2062174</v>
       </c>
       <c r="E3">
-        <f>D2+E2+F3</f>
+        <f>D2+E2+J3</f>
         <v>102695835</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H26" si="0">D3+F3</f>
+        <v>-2062174</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I26" si="1">E3+G3</f>
+        <v>102695835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20250702</v>
       </c>
@@ -469,11 +518,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E26" si="0">D3+E3+F4</f>
+        <f t="shared" ref="E4:E26" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>100633661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20250703</v>
       </c>
@@ -481,11 +544,25 @@
         <v>-906656</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100633661</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-906656</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>100633661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20250704</v>
       </c>
@@ -493,11 +570,25 @@
         <v>-113291</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99727005</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-113291</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>99727005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20250707</v>
       </c>
@@ -505,11 +596,25 @@
         <v>3390614</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99613714</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3390614</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>99613714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20250708</v>
       </c>
@@ -517,11 +622,25 @@
         <v>3820000</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>103004328</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3820000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>103004328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20250709</v>
       </c>
@@ -529,11 +648,25 @@
         <v>3243516</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106824328</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3243516</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>106824328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20250710</v>
       </c>
@@ -541,11 +674,25 @@
         <v>6563174</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110067844</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6563174</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>110067844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20250711</v>
       </c>
@@ -553,11 +700,25 @@
         <v>-102225</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>116631018</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-102225</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>116631018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20250714</v>
       </c>
@@ -565,11 +726,25 @@
         <v>-1471841</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>116528793</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-1471841</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>116528793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20250715</v>
       </c>
@@ -577,11 +752,25 @@
         <v>-1676443</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115056952</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-1676443</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>115056952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20250716</v>
       </c>
@@ -589,11 +778,25 @@
         <v>4464747</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113380509</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4464747</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>113380509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20250717</v>
       </c>
@@ -601,11 +804,25 @@
         <v>4323825</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>117845256</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4323825</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>117845256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20250718</v>
       </c>
@@ -613,11 +830,25 @@
         <v>-1179422</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>122169081</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-1179422</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>122169081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20250721</v>
       </c>
@@ -625,11 +856,25 @@
         <v>-14772</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120989659</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>607992</v>
+      </c>
+      <c r="G17">
+        <v>15041429</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>593220</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>136031088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20250722</v>
       </c>
@@ -637,11 +882,26 @@
         <v>4466711</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120974887</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>F17+G17</f>
+        <v>15649421</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4466711</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>136624308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20250723</v>
       </c>
@@ -649,11 +909,26 @@
         <v>-1186598</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>125441598</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>824351</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G26" si="3">F18+G18</f>
+        <v>15649421</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-362247</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>141091019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20250724</v>
       </c>
@@ -661,11 +936,26 @@
         <v>-658570</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>124255000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>16473772</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-658570</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>140728772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20250725</v>
       </c>
@@ -673,11 +963,26 @@
         <v>-157941</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>123596430</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1597783</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>16473772</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1439842</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>140070202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20250728</v>
       </c>
@@ -685,11 +990,26 @@
         <v>-1068451</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>123438489</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1297642</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>18071555</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>229191</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>141510044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20250729</v>
       </c>
@@ -697,11 +1017,26 @@
         <v>8552181</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>122370038</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>3997742</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>19369197</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>12549923</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>141739235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20250730</v>
       </c>
@@ -709,11 +1044,26 @@
         <v>-2465157</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130922219</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>23366939</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-2465157</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>154289158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20250731</v>
       </c>
@@ -721,11 +1071,26 @@
         <v>-3843490</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128457062</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>23366939</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-3843490</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>151824001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20250801</v>
       </c>
@@ -733,8 +1098,23 @@
         <v>-1423404</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>124613572</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>23366939</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-1423404</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>147980511</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003F42DF-1F7C-4E6E-8E53-71DD5CB31C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57F212-4894-4290-B8A1-DAE58278A178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>capital1</t>
+  </si>
+  <si>
+    <t>capital2</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57F212-4894-4290-B8A1-DAE58278A178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C7FD83-1B66-452F-8C63-71D0DBEE81F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -409,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H26" si="0">D3+F3</f>
+        <f t="shared" ref="H3:H27" si="0">D3+F3</f>
         <v>-2062174</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I26" si="1">E3+G3</f>
+        <f t="shared" ref="I3:I27" si="1">E3+G3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E26" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E27" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
       <c r="F4">
@@ -919,7 +919,7 @@
         <v>824351</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G26" si="3">F18+G18</f>
+        <f t="shared" ref="G19:G27" si="3">F18+G18</f>
         <v>15649421</v>
       </c>
       <c r="H19">
@@ -1118,6 +1118,33 @@
       <c r="I26">
         <f t="shared" si="1"/>
         <v>147980511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20250804</v>
+      </c>
+      <c r="D27">
+        <v>10279916</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>123190168</v>
+      </c>
+      <c r="F27">
+        <v>3248079</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>23366939</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>13527995</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>146557107</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C7FD83-1B66-452F-8C63-71D0DBEE81F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130C152-9430-4BD7-9DA7-C71F5A1D6F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H27" si="0">D3+F3</f>
+        <f t="shared" ref="H3:H28" si="0">D3+F3</f>
         <v>-2062174</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I27" si="1">E3+G3</f>
+        <f t="shared" ref="I3:I28" si="1">E3+G3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E27" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E28" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
       <c r="F4">
@@ -919,7 +919,7 @@
         <v>824351</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G27" si="3">F18+G18</f>
+        <f t="shared" ref="G19:G28" si="3">F18+G18</f>
         <v>15649421</v>
       </c>
       <c r="H19">
@@ -1145,6 +1145,33 @@
       <c r="I27">
         <f t="shared" si="1"/>
         <v>146557107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20250805</v>
+      </c>
+      <c r="D28">
+        <v>16391817</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>133470084</v>
+      </c>
+      <c r="F28">
+        <v>7486679</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>26615018</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>23878496</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>160085102</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130C152-9430-4BD7-9DA7-C71F5A1D6F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFB8C9-61C5-4AFA-849C-064FC5FF2F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H28" si="0">D3+F3</f>
+        <f t="shared" ref="H3:H29" si="0">D3+F3</f>
         <v>-2062174</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="1">E3+G3</f>
+        <f t="shared" ref="I3:I29" si="1">E3+G3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E28" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E29" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
       <c r="F4">
@@ -919,7 +919,7 @@
         <v>824351</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G28" si="3">F18+G18</f>
+        <f t="shared" ref="G19:G29" si="3">F18+G18</f>
         <v>15649421</v>
       </c>
       <c r="H19">
@@ -1172,6 +1172,33 @@
       <c r="I28">
         <f t="shared" si="1"/>
         <v>160085102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20250806</v>
+      </c>
+      <c r="D29">
+        <v>5980296</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>149861901</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>34101697</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>5980296</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>183963598</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFB8C9-61C5-4AFA-849C-064FC5FF2F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19FDD4-6BAD-430F-8E72-F368CF6AD395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="0">D3+F3</f>
+        <f t="shared" ref="H3:H30" si="0">D3+F3</f>
         <v>-2062174</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I29" si="1">E3+G3</f>
+        <f t="shared" ref="I3:I30" si="1">E3+G3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E29" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E30" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
       <c r="F4">
@@ -919,7 +919,7 @@
         <v>824351</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G29" si="3">F18+G18</f>
+        <f t="shared" ref="G19:G30" si="3">F18+G18</f>
         <v>15649421</v>
       </c>
       <c r="H19">
@@ -1199,6 +1199,33 @@
       <c r="I29">
         <f t="shared" si="1"/>
         <v>183963598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20250807</v>
+      </c>
+      <c r="D30">
+        <v>-2359312</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>155842197</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>34101697</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-2359312</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>189943894</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19FDD4-6BAD-430F-8E72-F368CF6AD395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99105FE-DBD1-4031-8BA8-6DE3F5BCEF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H30" si="0">D3+F3</f>
+        <f t="shared" ref="H3:H31" si="0">D3+F3</f>
         <v>-2062174</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I30" si="1">E3+G3</f>
+        <f t="shared" ref="I3:I31" si="1">E3+G3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E30" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E31" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
       <c r="F4">
@@ -919,7 +919,7 @@
         <v>824351</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G30" si="3">F18+G18</f>
+        <f t="shared" ref="G19:G31" si="3">F18+G18</f>
         <v>15649421</v>
       </c>
       <c r="H19">
@@ -1226,6 +1226,33 @@
       <c r="I30">
         <f t="shared" si="1"/>
         <v>189943894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20250808</v>
+      </c>
+      <c r="D31">
+        <v>-2549391</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>153482885</v>
+      </c>
+      <c r="F31">
+        <v>-2765285</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>34101697</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-5314676</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>187584582</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99105FE-DBD1-4031-8BA8-6DE3F5BCEF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334FC6C-AC44-4B43-A8E7-2CC6C0268E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="0">D3+F3</f>
+        <f t="shared" ref="H3:H32" si="0">D3+F3</f>
         <v>-2062174</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I31" si="1">E3+G3</f>
+        <f t="shared" ref="I3:I32" si="1">E3+G3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E31" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E32" si="2">D3+E3+J4</f>
         <v>100633661</v>
       </c>
       <c r="F4">
@@ -919,7 +919,7 @@
         <v>824351</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G31" si="3">F18+G18</f>
+        <f t="shared" ref="G19:G32" si="3">F18+G18</f>
         <v>15649421</v>
       </c>
       <c r="H19">
@@ -1253,6 +1253,33 @@
       <c r="I31">
         <f t="shared" si="1"/>
         <v>187584582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20250811</v>
+      </c>
+      <c r="D32">
+        <v>1550588</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>150933494</v>
+      </c>
+      <c r="F32">
+        <v>-1305864</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>31336412</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>244724</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>182269906</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A334FC6C-AC44-4B43-A8E7-2CC6C0268E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDE220-42A3-4E8D-AFDD-886E8E4850E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>capital2</t>
+  </si>
+  <si>
+    <t>change1</t>
+  </si>
+  <si>
+    <t>change2</t>
   </si>
 </sst>
 </file>
@@ -409,22 +415,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12.21875" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,25 +446,31 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20250630</v>
       </c>
@@ -469,25 +480,25 @@
       <c r="E2">
         <v>102695835</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <f>D2+F2</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>E2+G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>D2+G2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>E2+H2</f>
         <v>102695835</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20250701</v>
       </c>
@@ -495,25 +506,25 @@
         <v>-2062174</v>
       </c>
       <c r="E3">
-        <f>D2+E2+J3</f>
+        <f>D2+E2+L3</f>
         <v>102695835</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H32" si="0">D3+F3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J33" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I32" si="1">E3+G3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K33" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20250702</v>
       </c>
@@ -521,25 +532,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E32" si="2">D3+E3+J4</f>
+        <f t="shared" ref="E4:E32" si="2">D3+E3+L4</f>
         <v>100633661</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>100633661</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20250703</v>
       </c>
@@ -550,22 +561,22 @@
         <f t="shared" si="2"/>
         <v>100633661</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>-906656</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>100633661</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20250704</v>
       </c>
@@ -576,22 +587,22 @@
         <f t="shared" si="2"/>
         <v>99727005</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>-113291</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>99727005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20250707</v>
       </c>
@@ -602,22 +613,22 @@
         <f t="shared" si="2"/>
         <v>99613714</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>3390614</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>99613714</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20250708</v>
       </c>
@@ -628,22 +639,22 @@
         <f t="shared" si="2"/>
         <v>103004328</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>3820000</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>103004328</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20250709</v>
       </c>
@@ -654,22 +665,22 @@
         <f t="shared" si="2"/>
         <v>106824328</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>3243516</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>106824328</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20250710</v>
       </c>
@@ -680,22 +691,22 @@
         <f t="shared" si="2"/>
         <v>110067844</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>6563174</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>110067844</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20250711</v>
       </c>
@@ -706,22 +717,22 @@
         <f t="shared" si="2"/>
         <v>116631018</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>-102225</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>116631018</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20250714</v>
       </c>
@@ -732,22 +743,22 @@
         <f t="shared" si="2"/>
         <v>116528793</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>-1471841</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>116528793</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20250715</v>
       </c>
@@ -758,22 +769,22 @@
         <f t="shared" si="2"/>
         <v>115056952</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>-1676443</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>115056952</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20250716</v>
       </c>
@@ -784,22 +795,22 @@
         <f t="shared" si="2"/>
         <v>113380509</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>4464747</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>113380509</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20250717</v>
       </c>
@@ -810,22 +821,22 @@
         <f t="shared" si="2"/>
         <v>117845256</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>4323825</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>117845256</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20250718</v>
       </c>
@@ -836,22 +847,22 @@
         <f t="shared" si="2"/>
         <v>122169081</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>-1179422</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>122169081</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20250721</v>
       </c>
@@ -862,22 +873,22 @@
         <f t="shared" si="2"/>
         <v>120989659</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>607992</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>15041429</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>593220</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>136031088</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20250722</v>
       </c>
@@ -888,23 +899,23 @@
         <f t="shared" si="2"/>
         <v>120974887</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
-        <f>F17+G17</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>G17+H17</f>
         <v>15649421</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>4466711</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>136624308</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20250723</v>
       </c>
@@ -915,23 +926,23 @@
         <f t="shared" si="2"/>
         <v>125441598</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>824351</v>
       </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G32" si="3">F18+G18</f>
+      <c r="H19">
+        <f t="shared" ref="H19:H32" si="3">G18+H18</f>
         <v>15649421</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>-362247</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>141091019</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20250724</v>
       </c>
@@ -942,23 +953,23 @@
         <f t="shared" si="2"/>
         <v>124255000</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="3"/>
         <v>16473772</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>-658570</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>140728772</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20250725</v>
       </c>
@@ -969,23 +980,23 @@
         <f t="shared" si="2"/>
         <v>123596430</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1597783</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="3"/>
         <v>16473772</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>1439842</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>140070202</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20250728</v>
       </c>
@@ -996,23 +1007,23 @@
         <f t="shared" si="2"/>
         <v>123438489</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1297642</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="3"/>
         <v>18071555</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>229191</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>141510044</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20250729</v>
       </c>
@@ -1023,23 +1034,23 @@
         <f t="shared" si="2"/>
         <v>122370038</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3997742</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="3"/>
         <v>19369197</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>12549923</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>141739235</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20250730</v>
       </c>
@@ -1050,23 +1061,23 @@
         <f t="shared" si="2"/>
         <v>130922219</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="3"/>
         <v>23366939</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>-2465157</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>154289158</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20250731</v>
       </c>
@@ -1077,23 +1088,23 @@
         <f t="shared" si="2"/>
         <v>128457062</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>23366939</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>-3843490</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>151824001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20250801</v>
       </c>
@@ -1104,23 +1115,23 @@
         <f t="shared" si="2"/>
         <v>124613572</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="3"/>
         <v>23366939</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>-1423404</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>147980511</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20250804</v>
       </c>
@@ -1131,23 +1142,23 @@
         <f t="shared" si="2"/>
         <v>123190168</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3248079</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="3"/>
         <v>23366939</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>13527995</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>146557107</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20250805</v>
       </c>
@@ -1158,23 +1169,23 @@
         <f t="shared" si="2"/>
         <v>133470084</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7486679</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="3"/>
         <v>26615018</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>23878496</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>160085102</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20250806</v>
       </c>
@@ -1185,23 +1196,23 @@
         <f t="shared" si="2"/>
         <v>149861901</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="3"/>
         <v>34101697</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>5980296</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>183963598</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20250807</v>
       </c>
@@ -1212,23 +1223,23 @@
         <f t="shared" si="2"/>
         <v>155842197</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="3"/>
         <v>34101697</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>-2359312</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>189943894</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20250808</v>
       </c>
@@ -1239,23 +1250,23 @@
         <f t="shared" si="2"/>
         <v>153482885</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-2765285</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="3"/>
         <v>34101697</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>-5314676</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>187584582</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20250811</v>
       </c>
@@ -1266,20 +1277,53 @@
         <f t="shared" si="2"/>
         <v>150933494</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-1305864</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="3"/>
         <v>31336412</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>244724</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>182269906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20250812</v>
+      </c>
+      <c r="D33">
+        <v>1180072</v>
+      </c>
+      <c r="E33">
+        <f>D32+E32+F33</f>
+        <v>150484082</v>
+      </c>
+      <c r="F33">
+        <v>-2000000</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>G32+H32+I33</f>
+        <v>32030548</v>
+      </c>
+      <c r="I33">
+        <v>2000000</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1180072</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>182514630</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDE220-42A3-4E8D-AFDD-886E8E4850E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDDA06D-756D-4D44-9E9E-2611D52FC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J33" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J34" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K33" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K34" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1324,6 +1324,33 @@
       <c r="K33">
         <f t="shared" si="1"/>
         <v>182514630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20250813</v>
+      </c>
+      <c r="D34">
+        <v>-1740098</v>
+      </c>
+      <c r="E34">
+        <f>D33+E33+F34</f>
+        <v>151664154</v>
+      </c>
+      <c r="G34">
+        <v>-1585668</v>
+      </c>
+      <c r="H34">
+        <f>G33+H33+I34</f>
+        <v>32030548</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>-3325766</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>183694702</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDDA06D-756D-4D44-9E9E-2611D52FC85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E73D8-CC78-487D-8801-E26C4A8D4C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J35" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K34" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K35" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1351,6 +1351,33 @@
       <c r="K34">
         <f t="shared" si="1"/>
         <v>183694702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20250814</v>
+      </c>
+      <c r="D35">
+        <v>12178686</v>
+      </c>
+      <c r="E35">
+        <f>D34+E34+F35</f>
+        <v>149924056</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>G34+H34+I35</f>
+        <v>30444880</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>12178686</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>180368936</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E73D8-CC78-487D-8801-E26C4A8D4C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1A45E-65B6-4E9B-A7D5-2D8D1D7CA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J35" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J36" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K35" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K36" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1378,6 +1378,33 @@
       <c r="K35">
         <f t="shared" si="1"/>
         <v>180368936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20250815</v>
+      </c>
+      <c r="D36">
+        <v>4868044</v>
+      </c>
+      <c r="E36">
+        <f>D35+E35+F36</f>
+        <v>162102742</v>
+      </c>
+      <c r="G36">
+        <v>293487</v>
+      </c>
+      <c r="H36">
+        <f>G35+H35+I36</f>
+        <v>30444880</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>5161531</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>192547622</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1A45E-65B6-4E9B-A7D5-2D8D1D7CA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630EC762-C89F-4EE8-BEF3-08B4B366D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J36" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J37" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K36" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K37" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1405,6 +1405,33 @@
       <c r="K36">
         <f t="shared" si="1"/>
         <v>192547622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20250818</v>
+      </c>
+      <c r="D37">
+        <v>-50391</v>
+      </c>
+      <c r="E37">
+        <f>D36+E36+F37</f>
+        <v>166970786</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>G36+H36+I37</f>
+        <v>30738367</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>-50391</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>197709153</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630EC762-C89F-4EE8-BEF3-08B4B366D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5B701-9FB9-454A-A36F-892B61E8359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J37" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J38" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K37" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K38" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1432,6 +1432,33 @@
       <c r="K37">
         <f t="shared" si="1"/>
         <v>197709153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20250819</v>
+      </c>
+      <c r="D38">
+        <v>-131877</v>
+      </c>
+      <c r="E38">
+        <f>D37+E37+F38</f>
+        <v>166920395</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>G37+H37+I38</f>
+        <v>30738367</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>-131877</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>197658762</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5B701-9FB9-454A-A36F-892B61E8359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9774655-EF50-4A21-B0EA-2F15511E7004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J38" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J39" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K38" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K39" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f>D32+E32+F33</f>
+        <f t="shared" ref="E33:E39" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f>G32+H32+I33</f>
+        <f t="shared" ref="H33:H39" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1334,14 +1334,14 @@
         <v>-1740098</v>
       </c>
       <c r="E34">
-        <f>D33+E33+F34</f>
+        <f t="shared" si="4"/>
         <v>151664154</v>
       </c>
       <c r="G34">
         <v>-1585668</v>
       </c>
       <c r="H34">
-        <f>G33+H33+I34</f>
+        <f t="shared" si="5"/>
         <v>32030548</v>
       </c>
       <c r="J34">
@@ -1361,14 +1361,14 @@
         <v>12178686</v>
       </c>
       <c r="E35">
-        <f>D34+E34+F35</f>
+        <f t="shared" si="4"/>
         <v>149924056</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <f>G34+H34+I35</f>
+        <f t="shared" si="5"/>
         <v>30444880</v>
       </c>
       <c r="J35">
@@ -1388,14 +1388,14 @@
         <v>4868044</v>
       </c>
       <c r="E36">
-        <f>D35+E35+F36</f>
+        <f t="shared" si="4"/>
         <v>162102742</v>
       </c>
       <c r="G36">
         <v>293487</v>
       </c>
       <c r="H36">
-        <f>G35+H35+I36</f>
+        <f t="shared" si="5"/>
         <v>30444880</v>
       </c>
       <c r="J36">
@@ -1415,14 +1415,14 @@
         <v>-50391</v>
       </c>
       <c r="E37">
-        <f>D36+E36+F37</f>
+        <f t="shared" si="4"/>
         <v>166970786</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <f>G36+H36+I37</f>
+        <f t="shared" si="5"/>
         <v>30738367</v>
       </c>
       <c r="J37">
@@ -1442,14 +1442,14 @@
         <v>-131877</v>
       </c>
       <c r="E38">
-        <f>D37+E37+F38</f>
+        <f t="shared" si="4"/>
         <v>166920395</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <f>G37+H37+I38</f>
+        <f t="shared" si="5"/>
         <v>30738367</v>
       </c>
       <c r="J38">
@@ -1459,6 +1459,33 @@
       <c r="K38">
         <f t="shared" si="1"/>
         <v>197658762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20250820</v>
+      </c>
+      <c r="D39">
+        <v>894988</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>166788518</v>
+      </c>
+      <c r="G39">
+        <v>-1866875</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>30738367</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>-971887</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>197526885</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9774655-EF50-4A21-B0EA-2F15511E7004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51902DD9-A96C-4B4C-8861-5DE26D459265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J39" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J40" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K39" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K40" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E39" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E40" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H39" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H40" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1486,6 +1486,33 @@
       <c r="K39">
         <f t="shared" si="1"/>
         <v>197526885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>20250821</v>
+      </c>
+      <c r="D40">
+        <v>9329934</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>167683506</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>28871492</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>9329934</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>196554998</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51902DD9-A96C-4B4C-8861-5DE26D459265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31581C48-49A5-46BB-9DC1-D0B46890D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J40" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J41" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K40" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K41" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E40" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E41" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H40" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H41" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1513,6 +1513,33 @@
       <c r="K40">
         <f t="shared" si="1"/>
         <v>196554998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20250822</v>
+      </c>
+      <c r="D41">
+        <v>2526633</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>177013440</v>
+      </c>
+      <c r="G41">
+        <v>80032</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>28871492</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>2606665</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>205884932</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31581C48-49A5-46BB-9DC1-D0B46890D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346CD7E-E1D7-413C-9CFD-0F1005AA8FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J41" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J42" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K42" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E41" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E42" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H41" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H42" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1540,6 +1540,33 @@
       <c r="K41">
         <f t="shared" si="1"/>
         <v>205884932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20250825</v>
+      </c>
+      <c r="D42">
+        <v>4047249</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>179540073</v>
+      </c>
+      <c r="G42">
+        <v>2662449</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>28951524</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>6709698</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>208491597</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346CD7E-E1D7-413C-9CFD-0F1005AA8FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB600E-62B3-4B22-BBB6-9292A2402B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J42" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J43" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K42" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K43" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E42" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E43" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H42" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H43" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1567,6 +1567,33 @@
       <c r="K42">
         <f t="shared" si="1"/>
         <v>208491597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20250826</v>
+      </c>
+      <c r="D43">
+        <v>-724009</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>183587322</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>31613973</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>-724009</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>215201295</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB600E-62B3-4B22-BBB6-9292A2402B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA6358-A164-4AA2-9E10-6C1C467AE9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J43" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J44" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K43" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K44" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E43" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E44" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H43" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H44" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1594,6 +1594,33 @@
       <c r="K43">
         <f t="shared" si="1"/>
         <v>215201295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20250827</v>
+      </c>
+      <c r="D44">
+        <v>-473550</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>182863313</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>31613973</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>-473550</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>214477286</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA6358-A164-4AA2-9E10-6C1C467AE9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCA795-A355-445A-AE7F-F75663EA82EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J44" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J45" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K44" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K45" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E44" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E45" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H44" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H45" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1621,6 +1621,33 @@
       <c r="K44">
         <f t="shared" si="1"/>
         <v>214477286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20250828</v>
+      </c>
+      <c r="D45">
+        <v>3345615</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>182389763</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>31613973</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>3345615</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>214003736</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCA795-A355-445A-AE7F-F75663EA82EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147DDBD6-CC09-4ED7-98DC-AE6426215A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J45" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J46" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K45" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K46" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E45" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E46" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H45" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H46" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1648,6 +1648,33 @@
       <c r="K45">
         <f t="shared" si="1"/>
         <v>214003736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20250829</v>
+      </c>
+      <c r="D46">
+        <v>966658</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>185735378</v>
+      </c>
+      <c r="G46">
+        <v>343316</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>31613973</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1309974</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>217349351</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147DDBD6-CC09-4ED7-98DC-AE6426215A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72BED0D-00B9-4F04-A3F8-6E8F23DD8A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J46" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J48" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K46" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K48" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E46" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E48" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H46" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H48" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1675,6 +1675,60 @@
       <c r="K46">
         <f t="shared" si="1"/>
         <v>217349351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>20250903</v>
+      </c>
+      <c r="D47">
+        <v>-3861305</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>186702036</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>31957289</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>-3861305</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>218659325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20250904</v>
+      </c>
+      <c r="D48">
+        <v>1094125</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>182840731</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>31957289</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1094125</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>214798020</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72BED0D-00B9-4F04-A3F8-6E8F23DD8A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79359E36-3120-4494-A7D9-E7BFC4088342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J48" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J49" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K48" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K49" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E48" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E49" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H48" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H49" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1729,6 +1729,33 @@
       <c r="K48">
         <f t="shared" si="1"/>
         <v>214798020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20250905</v>
+      </c>
+      <c r="D49">
+        <v>-3061150</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>183934856</v>
+      </c>
+      <c r="G49">
+        <v>6309112</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>31957289</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>3247962</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>215892145</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79359E36-3120-4494-A7D9-E7BFC4088342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D0D3C7-A0C4-48F1-95BA-8748F775036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+      <selection activeCell="K49" sqref="K49:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J49" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J50" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K49" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K50" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E49" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E50" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H49" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H50" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1756,6 +1756,33 @@
       <c r="K49">
         <f t="shared" si="1"/>
         <v>215892145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20250908</v>
+      </c>
+      <c r="D50">
+        <v>1147021</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>180873706</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>38266401</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1147021</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>219140107</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D0D3C7-A0C4-48F1-95BA-8748F775036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC7463A-8472-4D3C-9C0B-99BA3C9F5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49:K50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J50" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J51" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K50" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K51" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E50" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E51" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H50" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H51" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1783,6 +1783,39 @@
       <c r="K50">
         <f t="shared" si="1"/>
         <v>219140107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>20250909</v>
+      </c>
+      <c r="D51">
+        <v>218796</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>312020727</v>
+      </c>
+      <c r="F51">
+        <v>130000000</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>58266401</v>
+      </c>
+      <c r="I51">
+        <v>20000000</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>218796</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>370287128</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC7463A-8472-4D3C-9C0B-99BA3C9F5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EDD460-EF86-44C4-BE58-882A112583A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="K51" sqref="K51:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J51" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J52" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K52" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E51" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E52" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H51" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H52" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1816,6 +1816,33 @@
       <c r="K51">
         <f t="shared" si="1"/>
         <v>370287128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>20250910</v>
+      </c>
+      <c r="D52">
+        <v>-4572443</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>312239523</v>
+      </c>
+      <c r="G52">
+        <v>-2846766</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>58266401</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>-7419209</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>370505924</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EDD460-EF86-44C4-BE58-882A112583A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999675E-3FE1-4073-B341-11877519F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51:K52"/>
+      <selection activeCell="K55" activeCellId="1" sqref="K55 K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J52" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J53" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K52" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K53" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E52" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E53" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H52" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H53" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1843,6 +1843,33 @@
       <c r="K52">
         <f t="shared" si="1"/>
         <v>370505924</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>20250911</v>
+      </c>
+      <c r="D53">
+        <v>17012191</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>307667080</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>55419635</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>17012191</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>363086715</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999675E-3FE1-4073-B341-11877519F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCC1E37-D9B3-4999-8506-E49D7A170879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K55" activeCellId="1" sqref="K55 K55"/>
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J53" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J54" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K53" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K54" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E53" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E54" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H53" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H54" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1870,6 +1870,33 @@
       <c r="K53">
         <f t="shared" si="1"/>
         <v>363086715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>20250912</v>
+      </c>
+      <c r="D54">
+        <v>2194235</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>324679271</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>55419635</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>2194235</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>380098906</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCC1E37-D9B3-4999-8506-E49D7A170879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F2210-89A1-415E-ADC5-9F2F141DC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J54" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J55" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K54" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K55" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E54" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E55" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H54" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H55" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1897,6 +1897,33 @@
       <c r="K54">
         <f t="shared" si="1"/>
         <v>380098906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>20250915</v>
+      </c>
+      <c r="D55">
+        <v>5756956</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>326873506</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>55419635</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>5756956</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>382293141</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F2210-89A1-415E-ADC5-9F2F141DC1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A530A6F2-21A0-4EFE-B603-139C3B47E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J55" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J56" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K55" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K56" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E55" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E56" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H55" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H56" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1924,6 +1924,33 @@
       <c r="K55">
         <f t="shared" si="1"/>
         <v>382293141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>20250916</v>
+      </c>
+      <c r="D56">
+        <v>1130795</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>332630462</v>
+      </c>
+      <c r="G56">
+        <v>229705</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>55419635</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>1360500</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>388050097</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A530A6F2-21A0-4EFE-B603-139C3B47E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B7D0F-55E8-4F70-8E55-B023AF450F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J56" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J57" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K56" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K57" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E56" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E57" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H56" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H57" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1951,6 +1951,33 @@
       <c r="K56">
         <f t="shared" si="1"/>
         <v>388050097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>20250917</v>
+      </c>
+      <c r="D57">
+        <v>-321362</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>333761257</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>55649340</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>-321362</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>389410597</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B7D0F-55E8-4F70-8E55-B023AF450F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86088F-AB49-4963-A787-4FCFCA9D7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J57" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J58" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K57" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K58" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E57" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E58" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H57" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H58" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -1978,6 +1978,33 @@
       <c r="K57">
         <f t="shared" si="1"/>
         <v>389410597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>20250918</v>
+      </c>
+      <c r="D58">
+        <v>3717469</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>333439895</v>
+      </c>
+      <c r="G58">
+        <v>3239613</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>55649340</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>6957082</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>389089235</v>
       </c>
     </row>
   </sheetData>

--- a/pnl_live.xlsx
+++ b/pnl_live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finpros\Alpha_Chien\My_Pnl\pnl_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86088F-AB49-4963-A787-4FCFCA9D7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677F74E-D86E-4649-BD04-AED533921F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7908B71A-616B-4275-8675-60B20834FB7E}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A7640-46DB-4A55-B4EE-19A5015A7190}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +516,11 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J58" si="0">D3+G3</f>
+        <f t="shared" ref="J3:J59" si="0">D3+G3</f>
         <v>-2062174</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K58" si="1">E3+H3</f>
+        <f t="shared" ref="K3:K59" si="1">E3+H3</f>
         <v>102695835</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>1180072</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E58" si="4">D32+E32+F33</f>
+        <f t="shared" ref="E33:E59" si="4">D32+E32+F33</f>
         <v>150484082</v>
       </c>
       <c r="F33">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H58" si="5">G32+H32+I33</f>
+        <f t="shared" ref="H33:H59" si="5">G32+H32+I33</f>
         <v>32030548</v>
       </c>
       <c r="I33">
@@ -2005,6 +2005,33 @@
       <c r="K58">
         <f t="shared" si="1"/>
         <v>389089235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20250919</v>
+      </c>
+      <c r="D59">
+        <v>-3882468</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>337157364</v>
+      </c>
+      <c r="G59">
+        <v>-349095</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>58888953</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>-4231563</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>396046317</v>
       </c>
     </row>
   </sheetData>
